--- a/data/pca/factorExposure/factorExposure_2015-10-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-10-02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.02694357400475443</v>
+        <v>0.02153264129164569</v>
       </c>
       <c r="C2">
-        <v>0.03605606405937037</v>
+        <v>0.04571292955064862</v>
       </c>
       <c r="D2">
-        <v>0.1112181087140984</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.1224440056745561</v>
+      </c>
+      <c r="E2">
+        <v>0.04150324824890108</v>
+      </c>
+      <c r="F2">
+        <v>-0.04046807126784943</v>
+      </c>
+      <c r="G2">
+        <v>0.07806026693522509</v>
+      </c>
+      <c r="H2">
+        <v>0.08496595818734037</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.01150234015457635</v>
+        <v>0.005448741627404535</v>
       </c>
       <c r="C3">
-        <v>0.04663926312313463</v>
+        <v>0.03771761486926115</v>
       </c>
       <c r="D3">
-        <v>0.0757661984200405</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.05448042135554142</v>
+      </c>
+      <c r="E3">
+        <v>0.06342764258254857</v>
+      </c>
+      <c r="F3">
+        <v>-0.06373135125956031</v>
+      </c>
+      <c r="G3">
+        <v>0.1047161342461997</v>
+      </c>
+      <c r="H3">
+        <v>0.09603078670968121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.05142863835202487</v>
+        <v>0.0453817612252545</v>
       </c>
       <c r="C4">
-        <v>0.06996913526279762</v>
+        <v>0.08591128059278177</v>
       </c>
       <c r="D4">
-        <v>0.1196531969992669</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.1385363318954858</v>
+      </c>
+      <c r="E4">
+        <v>0.05574830374129511</v>
+      </c>
+      <c r="F4">
+        <v>-0.05636241321284344</v>
+      </c>
+      <c r="G4">
+        <v>-0.04682881294531092</v>
+      </c>
+      <c r="H4">
+        <v>0.0146984346684847</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.03661279787889834</v>
+        <v>0.03674004519202841</v>
       </c>
       <c r="C6">
-        <v>0.02784958987331169</v>
+        <v>0.03647210899238822</v>
       </c>
       <c r="D6">
-        <v>0.1516903897254142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.1409198722215033</v>
+      </c>
+      <c r="E6">
+        <v>0.01276463420157734</v>
+      </c>
+      <c r="F6">
+        <v>-0.04603600669776289</v>
+      </c>
+      <c r="G6">
+        <v>-0.009840468232025201</v>
+      </c>
+      <c r="H6">
+        <v>0.05528769536142995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02076423049757075</v>
+        <v>0.01639755186490324</v>
       </c>
       <c r="C7">
-        <v>0.03098191662577562</v>
+        <v>0.03835387142356006</v>
       </c>
       <c r="D7">
-        <v>0.1058871088019466</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.09603115765592261</v>
+      </c>
+      <c r="E7">
+        <v>-0.001137617805793131</v>
+      </c>
+      <c r="F7">
+        <v>-0.03026452388594197</v>
+      </c>
+      <c r="G7">
+        <v>0.005590077224594682</v>
+      </c>
+      <c r="H7">
+        <v>0.06903891490401481</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01033888087793049</v>
+        <v>0.006272437031050688</v>
       </c>
       <c r="C8">
-        <v>0.03584770293143538</v>
+        <v>0.03916780355817755</v>
       </c>
       <c r="D8">
-        <v>0.06197110599294554</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.07406391619300633</v>
+      </c>
+      <c r="E8">
+        <v>0.02579175053408588</v>
+      </c>
+      <c r="F8">
+        <v>-0.07425976949636065</v>
+      </c>
+      <c r="G8">
+        <v>0.03683314555897816</v>
+      </c>
+      <c r="H8">
+        <v>0.04988791824021962</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.04155111685715259</v>
+        <v>0.03600029691748691</v>
       </c>
       <c r="C9">
-        <v>0.06172511656213676</v>
+        <v>0.07405660755067023</v>
       </c>
       <c r="D9">
-        <v>0.1073735654512889</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.1167572789499393</v>
+      </c>
+      <c r="E9">
+        <v>0.0417228078209206</v>
+      </c>
+      <c r="F9">
+        <v>-0.03365122164221857</v>
+      </c>
+      <c r="G9">
+        <v>-0.03278479156290167</v>
+      </c>
+      <c r="H9">
+        <v>0.01263808760057914</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1330673815221664</v>
+        <v>0.1756914957216674</v>
       </c>
       <c r="C10">
-        <v>-0.1797228507164216</v>
+        <v>-0.1686761893915822</v>
       </c>
       <c r="D10">
-        <v>-0.004168297930222863</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.003381970957092708</v>
+      </c>
+      <c r="E10">
+        <v>0.03215288762663806</v>
+      </c>
+      <c r="F10">
+        <v>-0.03937590501657064</v>
+      </c>
+      <c r="G10">
+        <v>-0.007334054394740584</v>
+      </c>
+      <c r="H10">
+        <v>-0.04565883896561783</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03059780365997844</v>
+        <v>0.02601953024767652</v>
       </c>
       <c r="C11">
-        <v>0.04689645800999258</v>
+        <v>0.05147939087530163</v>
       </c>
       <c r="D11">
-        <v>0.06085878592909942</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.05722087006860328</v>
+      </c>
+      <c r="E11">
+        <v>-0.01290083726235744</v>
+      </c>
+      <c r="F11">
+        <v>0.003432121105803375</v>
+      </c>
+      <c r="G11">
+        <v>0.0007293106287984422</v>
+      </c>
+      <c r="H11">
+        <v>0.03266668303871671</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03629642293523769</v>
+        <v>0.02986985861171915</v>
       </c>
       <c r="C12">
-        <v>0.04859112278001926</v>
+        <v>0.05338721562715811</v>
       </c>
       <c r="D12">
-        <v>0.06050780890818708</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05454074264834948</v>
+      </c>
+      <c r="E12">
+        <v>-0.002065008191159696</v>
+      </c>
+      <c r="F12">
+        <v>0.007727811103545554</v>
+      </c>
+      <c r="G12">
+        <v>0.002662244552247358</v>
+      </c>
+      <c r="H12">
+        <v>0.03738790508107599</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01323760321696921</v>
+        <v>0.01665155981549139</v>
       </c>
       <c r="C13">
-        <v>0.03745099998687921</v>
+        <v>0.045369268261851</v>
       </c>
       <c r="D13">
-        <v>0.1376238596984531</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.1541555183525585</v>
+      </c>
+      <c r="E13">
+        <v>0.01820059654198321</v>
+      </c>
+      <c r="F13">
+        <v>-0.07293437148348171</v>
+      </c>
+      <c r="G13">
+        <v>0.02563855419854277</v>
+      </c>
+      <c r="H13">
+        <v>0.05608736880611487</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.006781720150433995</v>
+        <v>0.008083900620449152</v>
       </c>
       <c r="C14">
-        <v>0.02429591930842602</v>
+        <v>0.02742386957354144</v>
       </c>
       <c r="D14">
-        <v>0.09574545209175592</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.09786238101682392</v>
+      </c>
+      <c r="E14">
+        <v>0.02200235448331933</v>
+      </c>
+      <c r="F14">
+        <v>-0.0269966743066825</v>
+      </c>
+      <c r="G14">
+        <v>0.01095277467918903</v>
+      </c>
+      <c r="H14">
+        <v>0.09068960301911143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.002835014497519527</v>
+        <v>0.001273188393741751</v>
       </c>
       <c r="C15">
-        <v>0.005054687374362509</v>
+        <v>0.01368958477442694</v>
       </c>
       <c r="D15">
-        <v>0.008956654670818517</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.03645203609660652</v>
+      </c>
+      <c r="E15">
+        <v>0.008820995739484307</v>
+      </c>
+      <c r="F15">
+        <v>-0.007842204921245943</v>
+      </c>
+      <c r="G15">
+        <v>0.005472744554137558</v>
+      </c>
+      <c r="H15">
+        <v>0.0209025560052442</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02951059223501093</v>
+        <v>0.02560979335187094</v>
       </c>
       <c r="C16">
-        <v>0.04785065861929324</v>
+        <v>0.05087717852138349</v>
       </c>
       <c r="D16">
-        <v>0.06787123591062964</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06158112305520348</v>
+      </c>
+      <c r="E16">
+        <v>0.004905959074316366</v>
+      </c>
+      <c r="F16">
+        <v>-0.005269101029196654</v>
+      </c>
+      <c r="G16">
+        <v>-0.000577851864198532</v>
+      </c>
+      <c r="H16">
+        <v>0.0492523519987318</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.01069802964586938</v>
+        <v>0.00677481826111464</v>
       </c>
       <c r="C19">
-        <v>0.03469607192822034</v>
+        <v>0.02995096988252768</v>
       </c>
       <c r="D19">
-        <v>0.1497440217416059</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1157588050140828</v>
+      </c>
+      <c r="E19">
+        <v>0.05902545624087768</v>
+      </c>
+      <c r="F19">
+        <v>-0.0182936696634477</v>
+      </c>
+      <c r="G19">
+        <v>0.01937735066691226</v>
+      </c>
+      <c r="H19">
+        <v>0.05150209751007059</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01535867584214144</v>
+        <v>0.01537397898246305</v>
       </c>
       <c r="C20">
-        <v>0.03507752795346814</v>
+        <v>0.03965618740961562</v>
       </c>
       <c r="D20">
-        <v>0.09136319470121419</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.1034495187549885</v>
+      </c>
+      <c r="E20">
+        <v>0.04282593246351854</v>
+      </c>
+      <c r="F20">
+        <v>-0.02835940739110824</v>
+      </c>
+      <c r="G20">
+        <v>-0.00533119543511428</v>
+      </c>
+      <c r="H20">
+        <v>0.05257058852318577</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01120090633049492</v>
+        <v>0.009116113512597614</v>
       </c>
       <c r="C21">
-        <v>0.03773448572615004</v>
+        <v>0.04282091554899319</v>
       </c>
       <c r="D21">
-        <v>0.1437588106425239</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.1428106542635823</v>
+      </c>
+      <c r="E21">
+        <v>0.07675873173643476</v>
+      </c>
+      <c r="F21">
+        <v>-0.06472081746041501</v>
+      </c>
+      <c r="G21">
+        <v>-0.009228685505513822</v>
+      </c>
+      <c r="H21">
+        <v>0.07883473578132301</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.0004757647005273438</v>
+        <v>0.006644267943292298</v>
       </c>
       <c r="C22">
-        <v>0.04990378624206356</v>
+        <v>0.04789705559017475</v>
       </c>
       <c r="D22">
-        <v>0.1114817849368883</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1638985119048184</v>
+      </c>
+      <c r="E22">
+        <v>0.009392627093139101</v>
+      </c>
+      <c r="F22">
+        <v>-0.1213495918143573</v>
+      </c>
+      <c r="G22">
+        <v>0.1196558787995462</v>
+      </c>
+      <c r="H22">
+        <v>-0.01917682760873238</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.0003187876137725183</v>
+        <v>0.006770547397189347</v>
       </c>
       <c r="C23">
-        <v>0.05022297918169839</v>
+        <v>0.04841058028017194</v>
       </c>
       <c r="D23">
-        <v>0.1109438755717051</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1631145380614929</v>
+      </c>
+      <c r="E23">
+        <v>0.009681397476489453</v>
+      </c>
+      <c r="F23">
+        <v>-0.1214487401940157</v>
+      </c>
+      <c r="G23">
+        <v>0.1188271593535944</v>
+      </c>
+      <c r="H23">
+        <v>-0.01969385942273817</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03377539205809109</v>
+        <v>0.02679169222384731</v>
       </c>
       <c r="C24">
-        <v>0.0604586811990117</v>
+        <v>0.06393639095166213</v>
       </c>
       <c r="D24">
-        <v>0.06680238744262622</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06199045670749186</v>
+      </c>
+      <c r="E24">
+        <v>0.003855651376374209</v>
+      </c>
+      <c r="F24">
+        <v>-0.002715375157103464</v>
+      </c>
+      <c r="G24">
+        <v>-0.01254349901530542</v>
+      </c>
+      <c r="H24">
+        <v>0.05762297976288517</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03665447311849138</v>
+        <v>0.03023802915378231</v>
       </c>
       <c r="C25">
-        <v>0.05687397382826959</v>
+        <v>0.06029796927757772</v>
       </c>
       <c r="D25">
-        <v>0.06527477287679617</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.06064402363464552</v>
+      </c>
+      <c r="E25">
+        <v>0.008247262605974109</v>
+      </c>
+      <c r="F25">
+        <v>-0.00584673875681892</v>
+      </c>
+      <c r="G25">
+        <v>-0.00265261394255605</v>
+      </c>
+      <c r="H25">
+        <v>0.0275901916067958</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01506467521835113</v>
+        <v>0.01484384947676585</v>
       </c>
       <c r="C26">
-        <v>0.0132463788315589</v>
+        <v>0.02157753312596031</v>
       </c>
       <c r="D26">
-        <v>0.06150222256764061</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.06579441630707208</v>
+      </c>
+      <c r="E26">
+        <v>0.01815093660189707</v>
+      </c>
+      <c r="F26">
+        <v>-0.02888387266335102</v>
+      </c>
+      <c r="G26">
+        <v>0.002012959049451982</v>
+      </c>
+      <c r="H26">
+        <v>0.05679480484606946</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1986926470552361</v>
+        <v>0.2538749973551659</v>
       </c>
       <c r="C28">
-        <v>-0.2456679836713948</v>
+        <v>-0.2239976937896015</v>
       </c>
       <c r="D28">
-        <v>-0.01739444222551271</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01606891624594371</v>
+      </c>
+      <c r="E28">
+        <v>0.05603685183620476</v>
+      </c>
+      <c r="F28">
+        <v>-0.02787021333810596</v>
+      </c>
+      <c r="G28">
+        <v>-0.02721969924386545</v>
+      </c>
+      <c r="H28">
+        <v>-0.0632732608847896</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.003515165559310569</v>
+        <v>0.00536741846557688</v>
       </c>
       <c r="C29">
-        <v>0.02272620629597366</v>
+        <v>0.02654042272689016</v>
       </c>
       <c r="D29">
-        <v>0.08552470902541859</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.09451315666128669</v>
+      </c>
+      <c r="E29">
+        <v>0.00985481030274598</v>
+      </c>
+      <c r="F29">
+        <v>-0.04438711594225629</v>
+      </c>
+      <c r="G29">
+        <v>0.0005416388572718225</v>
+      </c>
+      <c r="H29">
+        <v>0.08772364683443586</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.03415309671280447</v>
+        <v>0.03530345220019028</v>
       </c>
       <c r="C30">
-        <v>0.06435695602292628</v>
+        <v>0.07505877912852159</v>
       </c>
       <c r="D30">
-        <v>0.1576906645342167</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1653618317972136</v>
+      </c>
+      <c r="E30">
+        <v>0.01266732472948626</v>
+      </c>
+      <c r="F30">
+        <v>-0.04038595496059654</v>
+      </c>
+      <c r="G30">
+        <v>-0.008573969183620762</v>
+      </c>
+      <c r="H30">
+        <v>0.06712305293437805</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06004372562906454</v>
+        <v>0.04501315803878086</v>
       </c>
       <c r="C31">
-        <v>0.07515007012104385</v>
+        <v>0.08457511637423901</v>
       </c>
       <c r="D31">
-        <v>0.062031958833535</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.04794195488304508</v>
+      </c>
+      <c r="E31">
+        <v>0.01800534532770159</v>
+      </c>
+      <c r="F31">
+        <v>-0.04187638333764617</v>
+      </c>
+      <c r="G31">
+        <v>0.004329733628910785</v>
+      </c>
+      <c r="H31">
+        <v>0.02308587919159314</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.02163359438553877</v>
+        <v>0.02190711096738148</v>
       </c>
       <c r="C32">
-        <v>0.02472722373857903</v>
+        <v>0.02833568212617174</v>
       </c>
       <c r="D32">
-        <v>0.09019813543906319</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.1142097331134215</v>
+      </c>
+      <c r="E32">
+        <v>0.04762168709884384</v>
+      </c>
+      <c r="F32">
+        <v>-0.0643720988209307</v>
+      </c>
+      <c r="G32">
+        <v>0.007842241703762192</v>
+      </c>
+      <c r="H32">
+        <v>0.03442916305257786</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02460508341147073</v>
+        <v>0.02356207464467667</v>
       </c>
       <c r="C33">
-        <v>0.04403153536768334</v>
+        <v>0.05170307010018058</v>
       </c>
       <c r="D33">
-        <v>0.1420751680436109</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1344821838915647</v>
+      </c>
+      <c r="E33">
+        <v>0.03444244524698702</v>
+      </c>
+      <c r="F33">
+        <v>-0.03888549573381777</v>
+      </c>
+      <c r="G33">
+        <v>0.004111205414372488</v>
+      </c>
+      <c r="H33">
+        <v>0.0594271229684951</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.02813188814772184</v>
+        <v>0.02090485629319713</v>
       </c>
       <c r="C34">
-        <v>0.06977029531957415</v>
+        <v>0.06698240732213472</v>
       </c>
       <c r="D34">
-        <v>0.06675339027059042</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.05409941997860447</v>
+      </c>
+      <c r="E34">
+        <v>-0.01143626325020238</v>
+      </c>
+      <c r="F34">
+        <v>0.01137465820152502</v>
+      </c>
+      <c r="G34">
+        <v>0.003113975210616376</v>
+      </c>
+      <c r="H34">
+        <v>0.05040720295381242</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0009044868422406814</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.001635419125341853</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.008103939474651852</v>
+      </c>
+      <c r="E35">
+        <v>-0.0004156562573499839</v>
+      </c>
+      <c r="F35">
+        <v>-0.001616206372172679</v>
+      </c>
+      <c r="G35">
+        <v>0.0009823600222567811</v>
+      </c>
+      <c r="H35">
+        <v>0.003855209913190871</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01965956601823481</v>
+        <v>0.01930742847071891</v>
       </c>
       <c r="C36">
-        <v>0.009230892034281866</v>
+        <v>0.01926845124088217</v>
       </c>
       <c r="D36">
-        <v>0.08599707838650464</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.0805593613338605</v>
+      </c>
+      <c r="E36">
+        <v>0.02341531655218069</v>
+      </c>
+      <c r="F36">
+        <v>-0.02319998439656868</v>
+      </c>
+      <c r="G36">
+        <v>-0.01335760771020989</v>
+      </c>
+      <c r="H36">
+        <v>0.04567966440251488</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.01703678064129145</v>
+        <v>0.02106810008616014</v>
       </c>
       <c r="C38">
-        <v>0.01644103195763965</v>
+        <v>0.02011807074867045</v>
       </c>
       <c r="D38">
-        <v>0.07357334107052448</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.07320342692455462</v>
+      </c>
+      <c r="E38">
+        <v>0.03536063401505403</v>
+      </c>
+      <c r="F38">
+        <v>0.008338180466566546</v>
+      </c>
+      <c r="G38">
+        <v>0.01741018861699073</v>
+      </c>
+      <c r="H38">
+        <v>0.04073918217638342</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03592133808304926</v>
+        <v>0.02946719785544269</v>
       </c>
       <c r="C39">
-        <v>0.06339241331811819</v>
+        <v>0.07473554620294563</v>
       </c>
       <c r="D39">
-        <v>0.09941217304825221</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1048673860492559</v>
+      </c>
+      <c r="E39">
+        <v>0.003071761187635474</v>
+      </c>
+      <c r="F39">
+        <v>0.008871960776111167</v>
+      </c>
+      <c r="G39">
+        <v>-0.01982493242913101</v>
+      </c>
+      <c r="H39">
+        <v>0.09164032931886389</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01419666584187442</v>
+        <v>0.01151807986271579</v>
       </c>
       <c r="C40">
-        <v>0.04488615042517665</v>
+        <v>0.039535288565402</v>
       </c>
       <c r="D40">
-        <v>0.08438586877228993</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.08888187082391939</v>
+      </c>
+      <c r="E40">
+        <v>0.0361532951965599</v>
+      </c>
+      <c r="F40">
+        <v>-0.1120514649741847</v>
+      </c>
+      <c r="G40">
+        <v>0.1210338467998623</v>
+      </c>
+      <c r="H40">
+        <v>0.1438992837098857</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.02920880598263803</v>
+        <v>0.02641788755612775</v>
       </c>
       <c r="C41">
-        <v>0.006665222822792916</v>
+        <v>0.0145545769325014</v>
       </c>
       <c r="D41">
-        <v>0.06782438629897973</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.04915872924564114</v>
+      </c>
+      <c r="E41">
+        <v>0.04877525710245923</v>
+      </c>
+      <c r="F41">
+        <v>-0.01751975621323803</v>
+      </c>
+      <c r="G41">
+        <v>0.01942523157050948</v>
+      </c>
+      <c r="H41">
+        <v>0.04800081904775911</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.02770351902653228</v>
+        <v>0.0229413563496892</v>
       </c>
       <c r="C43">
-        <v>0.01552481870651166</v>
+        <v>0.02134339729167243</v>
       </c>
       <c r="D43">
-        <v>0.1104549635593984</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.08413447899662237</v>
+      </c>
+      <c r="E43">
+        <v>0.02994079051660271</v>
+      </c>
+      <c r="F43">
+        <v>-0.01169475785351099</v>
+      </c>
+      <c r="G43">
+        <v>0.01009451529501718</v>
+      </c>
+      <c r="H43">
+        <v>0.05780659143128381</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01431429972398088</v>
+        <v>0.01653154924952068</v>
       </c>
       <c r="C44">
-        <v>0.04269677114186429</v>
+        <v>0.0439606485292096</v>
       </c>
       <c r="D44">
-        <v>0.09132017891108711</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.1071955837390777</v>
+      </c>
+      <c r="E44">
+        <v>0.03746895840550682</v>
+      </c>
+      <c r="F44">
+        <v>-0.02899469601314953</v>
+      </c>
+      <c r="G44">
+        <v>-0.001803638607350821</v>
+      </c>
+      <c r="H44">
+        <v>0.04420935259420001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.0149018465336683</v>
+        <v>0.01112771100975931</v>
       </c>
       <c r="C46">
-        <v>0.02684516591033837</v>
+        <v>0.03494664056264135</v>
       </c>
       <c r="D46">
-        <v>0.09153650113310798</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.09043574041967094</v>
+      </c>
+      <c r="E46">
+        <v>0.02482897920118036</v>
+      </c>
+      <c r="F46">
+        <v>-0.0233084087551256</v>
+      </c>
+      <c r="G46">
+        <v>-0.0118810991243425</v>
+      </c>
+      <c r="H46">
+        <v>0.08800518210652167</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09127679859917677</v>
+        <v>0.07283035183020356</v>
       </c>
       <c r="C47">
-        <v>0.08841245576787618</v>
+        <v>0.1037657897593629</v>
       </c>
       <c r="D47">
-        <v>0.02754148190467456</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.02369528991521632</v>
+      </c>
+      <c r="E47">
+        <v>0.02824155897814519</v>
+      </c>
+      <c r="F47">
+        <v>-0.0260454158426179</v>
+      </c>
+      <c r="G47">
+        <v>0.007648019455678471</v>
+      </c>
+      <c r="H47">
+        <v>-0.04420460065098458</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01401282385262656</v>
+        <v>0.0149631440592627</v>
       </c>
       <c r="C48">
-        <v>0.02001098839572409</v>
+        <v>0.02487539225130532</v>
       </c>
       <c r="D48">
-        <v>0.07114817436599563</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.07320759493761604</v>
+      </c>
+      <c r="E48">
+        <v>0.05346769940529618</v>
+      </c>
+      <c r="F48">
+        <v>-0.02899417371404701</v>
+      </c>
+      <c r="G48">
+        <v>-0.01196936897500246</v>
+      </c>
+      <c r="H48">
+        <v>0.06237036445768621</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.05449451805232861</v>
+        <v>0.04191071816199379</v>
       </c>
       <c r="C50">
-        <v>0.06180460076184691</v>
+        <v>0.07313106110920806</v>
       </c>
       <c r="D50">
-        <v>0.05566199645695016</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.04978062412575499</v>
+      </c>
+      <c r="E50">
+        <v>0.02501085342370155</v>
+      </c>
+      <c r="F50">
+        <v>-0.04426581933910775</v>
+      </c>
+      <c r="G50">
+        <v>0.03586279812246603</v>
+      </c>
+      <c r="H50">
+        <v>0.02020760320330408</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01397918118602601</v>
+        <v>0.01220534909658472</v>
       </c>
       <c r="C51">
-        <v>0.01759166588285854</v>
+        <v>0.0246352386297349</v>
       </c>
       <c r="D51">
-        <v>0.08772356759098411</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.09390782427519752</v>
+      </c>
+      <c r="E51">
+        <v>-0.005585477545772672</v>
+      </c>
+      <c r="F51">
+        <v>-0.01332530493460964</v>
+      </c>
+      <c r="G51">
+        <v>-0.005768971125568028</v>
+      </c>
+      <c r="H51">
+        <v>0.07307759237527298</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1000133536392386</v>
+        <v>0.08758774491727676</v>
       </c>
       <c r="C53">
-        <v>0.107380269898573</v>
+        <v>0.1215876740191178</v>
       </c>
       <c r="D53">
-        <v>-0.0142628474403074</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.01007262373850105</v>
+      </c>
+      <c r="E53">
+        <v>0.07520247803846314</v>
+      </c>
+      <c r="F53">
+        <v>-0.08066524563733661</v>
+      </c>
+      <c r="G53">
+        <v>-0.03239131725721574</v>
+      </c>
+      <c r="H53">
+        <v>-0.01570474290433797</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02348207629249261</v>
+        <v>0.02189341550770393</v>
       </c>
       <c r="C54">
-        <v>0.03017748452577362</v>
+        <v>0.03738674948146228</v>
       </c>
       <c r="D54">
-        <v>0.1022848990207104</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.0932958730154545</v>
+      </c>
+      <c r="E54">
+        <v>0.03443365729538905</v>
+      </c>
+      <c r="F54">
+        <v>-0.01875747132654011</v>
+      </c>
+      <c r="G54">
+        <v>0.02379215720459107</v>
+      </c>
+      <c r="H54">
+        <v>0.07775016954223458</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09419115904895731</v>
+        <v>0.07996178489783191</v>
       </c>
       <c r="C55">
-        <v>0.08152290768105339</v>
+        <v>0.09699227324447364</v>
       </c>
       <c r="D55">
-        <v>-0.02547447485249111</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.02158667562521584</v>
+      </c>
+      <c r="E55">
+        <v>0.0301136255654579</v>
+      </c>
+      <c r="F55">
+        <v>-0.06292645042437829</v>
+      </c>
+      <c r="G55">
+        <v>-0.0008491265469948844</v>
+      </c>
+      <c r="H55">
+        <v>-0.01104094726412456</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1310212861359722</v>
+        <v>0.1114520925945139</v>
       </c>
       <c r="C56">
-        <v>0.1169592643260918</v>
+        <v>0.1440059449392968</v>
       </c>
       <c r="D56">
-        <v>-0.02562502569201315</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.02646765031901255</v>
+      </c>
+      <c r="E56">
+        <v>0.04835006250039348</v>
+      </c>
+      <c r="F56">
+        <v>-0.05260270773774316</v>
+      </c>
+      <c r="G56">
+        <v>0.006625608570724076</v>
+      </c>
+      <c r="H56">
+        <v>-0.03544291670202898</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.01188068137046655</v>
+        <v>0.01825303205864883</v>
       </c>
       <c r="C58">
-        <v>0.03645546616888644</v>
+        <v>0.05498056931855282</v>
       </c>
       <c r="D58">
-        <v>0.2542877301750461</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.2966125196688589</v>
+      </c>
+      <c r="E58">
+        <v>0.0812616679672018</v>
+      </c>
+      <c r="F58">
+        <v>-0.1362631492667262</v>
+      </c>
+      <c r="G58">
+        <v>0.1128608383604436</v>
+      </c>
+      <c r="H58">
+        <v>-0.03722903537361293</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1589529466440236</v>
+        <v>0.1988054161704151</v>
       </c>
       <c r="C59">
-        <v>-0.1657918056580023</v>
+        <v>-0.1426878306927616</v>
       </c>
       <c r="D59">
-        <v>0.0469693851156391</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.06001356514010239</v>
+      </c>
+      <c r="E59">
+        <v>0.04520159364434529</v>
+      </c>
+      <c r="F59">
+        <v>0.02081162102677599</v>
+      </c>
+      <c r="G59">
+        <v>-0.002853541957526818</v>
+      </c>
+      <c r="H59">
+        <v>-0.02256179863537714</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2349261088259332</v>
+        <v>0.2151488631347301</v>
       </c>
       <c r="C60">
-        <v>0.08456920140380295</v>
+        <v>0.1254147242977251</v>
       </c>
       <c r="D60">
-        <v>0.1684490071160165</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.1226606612497684</v>
+      </c>
+      <c r="E60">
+        <v>-0.3203926938880685</v>
+      </c>
+      <c r="F60">
+        <v>0.1263809148363363</v>
+      </c>
+      <c r="G60">
+        <v>-0.03518539426579179</v>
+      </c>
+      <c r="H60">
+        <v>-0.183678814256566</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.04233471542566801</v>
+        <v>0.03439432586478033</v>
       </c>
       <c r="C61">
-        <v>0.05778980922320728</v>
+        <v>0.06818979583077524</v>
       </c>
       <c r="D61">
-        <v>0.1091580084113508</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.09514344509321079</v>
+      </c>
+      <c r="E61">
+        <v>-0.001987886216704691</v>
+      </c>
+      <c r="F61">
+        <v>0.006639753225520429</v>
+      </c>
+      <c r="G61">
+        <v>-0.01299526231800021</v>
+      </c>
+      <c r="H61">
+        <v>0.05050971014377093</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01697327433510696</v>
+        <v>0.01468020019630469</v>
       </c>
       <c r="C63">
-        <v>0.02417195677873696</v>
+        <v>0.03447227128738985</v>
       </c>
       <c r="D63">
-        <v>0.08150467524175908</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.07561374223460275</v>
+      </c>
+      <c r="E63">
+        <v>0.00676622405279307</v>
+      </c>
+      <c r="F63">
+        <v>-0.02157392769083305</v>
+      </c>
+      <c r="G63">
+        <v>-0.00975336454315877</v>
+      </c>
+      <c r="H63">
+        <v>0.05105859731898331</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05658692802773456</v>
+        <v>0.04335764909055349</v>
       </c>
       <c r="C64">
-        <v>0.07888964476701738</v>
+        <v>0.08581423366387861</v>
       </c>
       <c r="D64">
-        <v>0.04866061127561101</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.04941237636327539</v>
+      </c>
+      <c r="E64">
+        <v>0.01548130251061984</v>
+      </c>
+      <c r="F64">
+        <v>-0.002637205804321496</v>
+      </c>
+      <c r="G64">
+        <v>-0.08275667689599653</v>
+      </c>
+      <c r="H64">
+        <v>0.05542575572748192</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.04030303128811846</v>
+        <v>0.03758333130800174</v>
       </c>
       <c r="C65">
-        <v>0.02222884794283809</v>
+        <v>0.035509934410905</v>
       </c>
       <c r="D65">
-        <v>0.1230329233369189</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.1136963637267702</v>
+      </c>
+      <c r="E65">
+        <v>-0.004042770434506757</v>
+      </c>
+      <c r="F65">
+        <v>-0.0186375840958346</v>
+      </c>
+      <c r="G65">
+        <v>0.005239083703820033</v>
+      </c>
+      <c r="H65">
+        <v>0.02528914990123129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03936299573566134</v>
+        <v>0.0327506293758679</v>
       </c>
       <c r="C66">
-        <v>0.07080589035979715</v>
+        <v>0.08537397480144507</v>
       </c>
       <c r="D66">
-        <v>0.1135992923748183</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1276501828954758</v>
+      </c>
+      <c r="E66">
+        <v>0.006331305285838986</v>
+      </c>
+      <c r="F66">
+        <v>-0.0006484319609761748</v>
+      </c>
+      <c r="G66">
+        <v>0.002840408317751916</v>
+      </c>
+      <c r="H66">
+        <v>0.05601753825539368</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.03799769631364997</v>
+        <v>0.03691264064535417</v>
       </c>
       <c r="C67">
-        <v>0.02367368861207389</v>
+        <v>0.02903648923585436</v>
       </c>
       <c r="D67">
-        <v>0.03866873695863214</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.0301113320483338</v>
+      </c>
+      <c r="E67">
+        <v>0.01019135057534151</v>
+      </c>
+      <c r="F67">
+        <v>0.02251215209771983</v>
+      </c>
+      <c r="G67">
+        <v>0.0164379603925758</v>
+      </c>
+      <c r="H67">
+        <v>0.04246471678590272</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1883722638486257</v>
+        <v>0.2254403706704146</v>
       </c>
       <c r="C68">
-        <v>-0.2007155165248648</v>
+        <v>-0.1670375724402229</v>
       </c>
       <c r="D68">
-        <v>0.01942593770760757</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.02268189195469134</v>
+      </c>
+      <c r="E68">
+        <v>0.01381747772301423</v>
+      </c>
+      <c r="F68">
+        <v>-0.03995134475222938</v>
+      </c>
+      <c r="G68">
+        <v>0.022026479043812</v>
+      </c>
+      <c r="H68">
+        <v>-0.005744093188917839</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.08292961860222567</v>
+        <v>0.06336318710500882</v>
       </c>
       <c r="C69">
-        <v>0.1045052215899489</v>
+        <v>0.1100541863882506</v>
       </c>
       <c r="D69">
-        <v>0.06089652120490122</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.04121803080473999</v>
+      </c>
+      <c r="E69">
+        <v>0.01789678927076437</v>
+      </c>
+      <c r="F69">
+        <v>-0.01087140616024593</v>
+      </c>
+      <c r="G69">
+        <v>0.0002730828776903764</v>
+      </c>
+      <c r="H69">
+        <v>-0.01251713327920163</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1742622905260579</v>
+        <v>0.2130979252341807</v>
       </c>
       <c r="C71">
-        <v>-0.2024449376454566</v>
+        <v>-0.1739284985692438</v>
       </c>
       <c r="D71">
-        <v>0.01936107580141768</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.02803498009725212</v>
+      </c>
+      <c r="E71">
+        <v>0.03566042799209847</v>
+      </c>
+      <c r="F71">
+        <v>-0.06523402522541623</v>
+      </c>
+      <c r="G71">
+        <v>0.03295028292421955</v>
+      </c>
+      <c r="H71">
+        <v>-0.01209300721855082</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1089702150676945</v>
+        <v>0.09654485746988017</v>
       </c>
       <c r="C72">
-        <v>0.06601697095098635</v>
+        <v>0.09217155090637408</v>
       </c>
       <c r="D72">
-        <v>0.08311179052248562</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.08566420651613625</v>
+      </c>
+      <c r="E72">
+        <v>-0.0646054175568067</v>
+      </c>
+      <c r="F72">
+        <v>-0.03036661211377628</v>
+      </c>
+      <c r="G72">
+        <v>-0.02026056937602378</v>
+      </c>
+      <c r="H72">
+        <v>0.02758715570908637</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2265552088896688</v>
+        <v>0.2024851917275672</v>
       </c>
       <c r="C73">
-        <v>0.04936443885060971</v>
+        <v>0.1075513703691441</v>
       </c>
       <c r="D73">
-        <v>0.2981806279742297</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.1849786622152198</v>
+      </c>
+      <c r="E73">
+        <v>-0.5811568107619366</v>
+      </c>
+      <c r="F73">
+        <v>0.1914617363766298</v>
+      </c>
+      <c r="G73">
+        <v>-0.05725693791757947</v>
+      </c>
+      <c r="H73">
+        <v>-0.2248800519798964</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.106646365939452</v>
+        <v>0.08841079753981437</v>
       </c>
       <c r="C74">
-        <v>0.08567996118306984</v>
+        <v>0.1066822756671415</v>
       </c>
       <c r="D74">
-        <v>-0.03119619933286426</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.03262064592233072</v>
+      </c>
+      <c r="E74">
+        <v>0.02791723558532945</v>
+      </c>
+      <c r="F74">
+        <v>-0.0718344037374259</v>
+      </c>
+      <c r="G74">
+        <v>-0.03312679555544127</v>
+      </c>
+      <c r="H74">
+        <v>-0.04464070701124404</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2500539163332477</v>
+        <v>0.2093804500855311</v>
       </c>
       <c r="C75">
-        <v>0.1583644806925634</v>
+        <v>0.2003857227520296</v>
       </c>
       <c r="D75">
-        <v>-0.1159323541539346</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1363045090622359</v>
+      </c>
+      <c r="E75">
+        <v>0.08578662367507868</v>
+      </c>
+      <c r="F75">
+        <v>-0.02082641358015958</v>
+      </c>
+      <c r="G75">
+        <v>0.02436131652703063</v>
+      </c>
+      <c r="H75">
+        <v>-0.06281855332097355</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1432842397837954</v>
+        <v>0.1181343177882587</v>
       </c>
       <c r="C76">
-        <v>0.1122378273636465</v>
+        <v>0.1359987673603388</v>
       </c>
       <c r="D76">
-        <v>-0.03098273513694744</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.03595209424616039</v>
+      </c>
+      <c r="E76">
+        <v>0.08132624793518081</v>
+      </c>
+      <c r="F76">
+        <v>-0.03413573029771568</v>
+      </c>
+      <c r="G76">
+        <v>-0.01651314058973956</v>
+      </c>
+      <c r="H76">
+        <v>0.02846438547947047</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.04381979966825884</v>
+        <v>0.04776475147324537</v>
       </c>
       <c r="C77">
-        <v>0.06940881175903871</v>
+        <v>0.0832217756834529</v>
       </c>
       <c r="D77">
-        <v>0.03523260213750845</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1279064917480507</v>
+      </c>
+      <c r="E77">
+        <v>0.475675469300113</v>
+      </c>
+      <c r="F77">
+        <v>0.3206514605294243</v>
+      </c>
+      <c r="G77">
+        <v>0.3401021160559475</v>
+      </c>
+      <c r="H77">
+        <v>-0.6357231423590501</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.04080519922209726</v>
+        <v>0.04021037366370093</v>
       </c>
       <c r="C78">
-        <v>0.06358640565324493</v>
+        <v>0.07341631744231197</v>
       </c>
       <c r="D78">
-        <v>0.1295090176171357</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1355967633898817</v>
+      </c>
+      <c r="E78">
+        <v>0.009984823521597403</v>
+      </c>
+      <c r="F78">
+        <v>-0.04237026332375689</v>
+      </c>
+      <c r="G78">
+        <v>-0.0009776859664362945</v>
+      </c>
+      <c r="H78">
+        <v>-0.01741090396435263</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.0508239631987551</v>
+        <v>0.04768223402221294</v>
       </c>
       <c r="C79">
-        <v>0.1025226725056291</v>
+        <v>0.1147509722384528</v>
       </c>
       <c r="D79">
-        <v>-0.1343449903750436</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.0708972582244346</v>
+      </c>
+      <c r="E79">
+        <v>0.177034546614297</v>
+      </c>
+      <c r="F79">
+        <v>-0.3944990221319278</v>
+      </c>
+      <c r="G79">
+        <v>-0.6933148820944501</v>
+      </c>
+      <c r="H79">
+        <v>-0.3110034497008967</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.02150943788434534</v>
+        <v>0.0185738153167516</v>
       </c>
       <c r="C80">
-        <v>0.04856012801366671</v>
+        <v>0.04790281018980967</v>
       </c>
       <c r="D80">
-        <v>0.01972661411795211</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01677518589954506</v>
+      </c>
+      <c r="E80">
+        <v>0.01233019944586471</v>
+      </c>
+      <c r="F80">
+        <v>-0.01169744724887267</v>
+      </c>
+      <c r="G80">
+        <v>0.01144283330536325</v>
+      </c>
+      <c r="H80">
+        <v>0.07410301970384946</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1326794396196584</v>
+        <v>0.1052305764989036</v>
       </c>
       <c r="C81">
-        <v>0.1174659515929837</v>
+        <v>0.1374917504544474</v>
       </c>
       <c r="D81">
-        <v>-0.09602489405017861</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.09635925886471064</v>
+      </c>
+      <c r="E81">
+        <v>0.09546288886965661</v>
+      </c>
+      <c r="F81">
+        <v>-0.06499277511609862</v>
+      </c>
+      <c r="G81">
+        <v>-0.004765443539036061</v>
+      </c>
+      <c r="H81">
+        <v>0.01026955510919664</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2582408262907288</v>
+        <v>0.1998060389305936</v>
       </c>
       <c r="C82">
-        <v>0.2480159845284492</v>
+        <v>0.2642769018913174</v>
       </c>
       <c r="D82">
-        <v>-0.2011602053930056</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2061293590301025</v>
+      </c>
+      <c r="E82">
+        <v>0.003779843157546111</v>
+      </c>
+      <c r="F82">
+        <v>0.03413369804777465</v>
+      </c>
+      <c r="G82">
+        <v>0.02081040265088337</v>
+      </c>
+      <c r="H82">
+        <v>-0.009091938728776781</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.02132498148158535</v>
+        <v>0.01282846272413858</v>
       </c>
       <c r="C83">
-        <v>0.05532341784097795</v>
+        <v>0.05418190697993702</v>
       </c>
       <c r="D83">
-        <v>0.04922164284860321</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.05450401998444643</v>
+      </c>
+      <c r="E83">
+        <v>0.06016319667406786</v>
+      </c>
+      <c r="F83">
+        <v>0.06209094917540181</v>
+      </c>
+      <c r="G83">
+        <v>0.02972058428262998</v>
+      </c>
+      <c r="H83">
+        <v>-0.03713849847266223</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0007688106401879486</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.005813023067331917</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.01735282232216385</v>
+      </c>
+      <c r="E84">
+        <v>0.01388456523392088</v>
+      </c>
+      <c r="F84">
+        <v>-0.0207946176683001</v>
+      </c>
+      <c r="G84">
+        <v>0.005231114167383051</v>
+      </c>
+      <c r="H84">
+        <v>0.02205131933675845</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.171337494681729</v>
+        <v>0.140220442610628</v>
       </c>
       <c r="C85">
-        <v>0.12752471716567</v>
+        <v>0.1601954505844162</v>
       </c>
       <c r="D85">
-        <v>-0.06065714450348537</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.08274004106751956</v>
+      </c>
+      <c r="E85">
+        <v>0.007914695875097121</v>
+      </c>
+      <c r="F85">
+        <v>-0.05447827232174526</v>
+      </c>
+      <c r="G85">
+        <v>-0.06652731304620733</v>
+      </c>
+      <c r="H85">
+        <v>-0.007432105902131238</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.02162015986262106</v>
+        <v>0.01968395465104784</v>
       </c>
       <c r="C86">
-        <v>0.03965072624939772</v>
+        <v>0.03930847898838395</v>
       </c>
       <c r="D86">
-        <v>0.122394392972586</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.1223344625253166</v>
+      </c>
+      <c r="E86">
+        <v>0.02789100738994483</v>
+      </c>
+      <c r="F86">
+        <v>0.002526715994102627</v>
+      </c>
+      <c r="G86">
+        <v>0.05451096929118699</v>
+      </c>
+      <c r="H86">
+        <v>-0.04637200285915107</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02515705936795962</v>
+        <v>0.0303990480074657</v>
       </c>
       <c r="C87">
-        <v>0.02229768395424975</v>
+        <v>0.03469304541615972</v>
       </c>
       <c r="D87">
-        <v>0.1103066631526012</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.1342304161934962</v>
+      </c>
+      <c r="E87">
+        <v>0.05889645981973364</v>
+      </c>
+      <c r="F87">
+        <v>-0.03725627436881312</v>
+      </c>
+      <c r="G87">
+        <v>0.00842510247417767</v>
+      </c>
+      <c r="H87">
+        <v>0.05217079175672863</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.07226591503758747</v>
+        <v>0.0582234618712424</v>
       </c>
       <c r="C88">
-        <v>0.04699690334816971</v>
+        <v>0.06211332846517437</v>
       </c>
       <c r="D88">
-        <v>0.03880867046014748</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01545507571348185</v>
+      </c>
+      <c r="E88">
+        <v>0.004820751297111231</v>
+      </c>
+      <c r="F88">
+        <v>-0.02867617128212018</v>
+      </c>
+      <c r="G88">
+        <v>-0.01243430864243446</v>
+      </c>
+      <c r="H88">
+        <v>0.05222514622083439</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.2641536409936483</v>
+        <v>0.3216865909974174</v>
       </c>
       <c r="C89">
-        <v>-0.3786975338773811</v>
+        <v>-0.3102779970505465</v>
       </c>
       <c r="D89">
-        <v>0.001803643881293998</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.008659446398916838</v>
+      </c>
+      <c r="E89">
+        <v>0.06599316258239663</v>
+      </c>
+      <c r="F89">
+        <v>0.0002810585700170672</v>
+      </c>
+      <c r="G89">
+        <v>-0.0528523056046795</v>
+      </c>
+      <c r="H89">
+        <v>0.1160039795656433</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2263449448175605</v>
+        <v>0.2659264638910627</v>
       </c>
       <c r="C90">
-        <v>-0.2802685813892294</v>
+        <v>-0.2202702949412915</v>
       </c>
       <c r="D90">
-        <v>0.0194282340095611</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.02959770882423418</v>
+      </c>
+      <c r="E90">
+        <v>0.050257433068779</v>
+      </c>
+      <c r="F90">
+        <v>-0.005202063642812192</v>
+      </c>
+      <c r="G90">
+        <v>0.04255680207129568</v>
+      </c>
+      <c r="H90">
+        <v>0.03908593921293214</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1717048403557743</v>
+        <v>0.1367623452232386</v>
       </c>
       <c r="C91">
-        <v>0.1658341323891421</v>
+        <v>0.1795727438837427</v>
       </c>
       <c r="D91">
-        <v>-0.1217798118122439</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1155505839334965</v>
+      </c>
+      <c r="E91">
+        <v>0.09476386495306706</v>
+      </c>
+      <c r="F91">
+        <v>-0.06349150227543807</v>
+      </c>
+      <c r="G91">
+        <v>-0.04384246141102256</v>
+      </c>
+      <c r="H91">
+        <v>-0.04947203304220713</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1982481595519031</v>
+        <v>0.2574207259370955</v>
       </c>
       <c r="C92">
-        <v>-0.2669733182489952</v>
+        <v>-0.2415644950795191</v>
       </c>
       <c r="D92">
-        <v>0.02224883992070574</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03389909111209222</v>
+      </c>
+      <c r="E92">
+        <v>0.1075221664754238</v>
+      </c>
+      <c r="F92">
+        <v>-0.01736022026271541</v>
+      </c>
+      <c r="G92">
+        <v>-0.006798380517940166</v>
+      </c>
+      <c r="H92">
+        <v>0.04694977532192616</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2471592463407942</v>
+        <v>0.2830718409900623</v>
       </c>
       <c r="C93">
-        <v>-0.2910695538992902</v>
+        <v>-0.2293493546185721</v>
       </c>
       <c r="D93">
-        <v>0.01936316990102571</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.00388709225069272</v>
+      </c>
+      <c r="E93">
+        <v>-0.01367851320521956</v>
+      </c>
+      <c r="F93">
+        <v>-0.03272526156301607</v>
+      </c>
+      <c r="G93">
+        <v>-0.01604207173183866</v>
+      </c>
+      <c r="H93">
+        <v>0.000723784529878719</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3474610539026459</v>
+        <v>0.2867023059491012</v>
       </c>
       <c r="C94">
-        <v>0.2137154087518849</v>
+        <v>0.2800802644342236</v>
       </c>
       <c r="D94">
-        <v>-0.4225681155407495</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4365376504238672</v>
+      </c>
+      <c r="E94">
+        <v>0.0009837326279565112</v>
+      </c>
+      <c r="F94">
+        <v>0.02809141234039766</v>
+      </c>
+      <c r="G94">
+        <v>0.3021515035717006</v>
+      </c>
+      <c r="H94">
+        <v>0.2955153237977733</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.07105680448539069</v>
+        <v>0.06430547718995032</v>
       </c>
       <c r="C95">
-        <v>0.07753619737486199</v>
+        <v>0.08601259476613039</v>
       </c>
       <c r="D95">
-        <v>0.1360114054171198</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.113649093632648</v>
+      </c>
+      <c r="E95">
+        <v>0.2534205502654948</v>
+      </c>
+      <c r="F95">
+        <v>0.7184709750799818</v>
+      </c>
+      <c r="G95">
+        <v>-0.4418066146707548</v>
+      </c>
+      <c r="H95">
+        <v>0.2929946439198913</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3187,74 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>4.606177181505169e-05</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-4.031111235611099e-05</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-2.860048443547248e-05</v>
+      </c>
+      <c r="E97">
+        <v>9.062597960085178e-05</v>
+      </c>
+      <c r="F97">
+        <v>-0.0002031807394132933</v>
+      </c>
+      <c r="G97">
+        <v>0.0001281833903485089</v>
+      </c>
+      <c r="H97">
+        <v>-0.000215629744406259</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1740281982282757</v>
+        <v>0.1615259676199339</v>
       </c>
       <c r="C98">
-        <v>0.05816589704351129</v>
+        <v>0.09519955260771537</v>
       </c>
       <c r="D98">
-        <v>0.1394039160871285</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1021421134645349</v>
+      </c>
+      <c r="E98">
+        <v>-0.3267223754428095</v>
+      </c>
+      <c r="F98">
+        <v>0.08064736150856838</v>
+      </c>
+      <c r="G98">
+        <v>-0.02158349259781821</v>
+      </c>
+      <c r="H98">
+        <v>-0.134646491854187</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.003614965571552534</v>
+        <v>0.005526122131573106</v>
       </c>
       <c r="C101">
-        <v>0.02210175935388335</v>
+        <v>0.02579835406856807</v>
       </c>
       <c r="D101">
-        <v>0.08570468745650493</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.09436320884987839</v>
+      </c>
+      <c r="E101">
+        <v>0.01077122880160446</v>
+      </c>
+      <c r="F101">
+        <v>-0.04385555723865538</v>
+      </c>
+      <c r="G101">
+        <v>-8.840306620784703e-05</v>
+      </c>
+      <c r="H101">
+        <v>0.08756711449954131</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1230426875080938</v>
+        <v>0.09183830232174718</v>
       </c>
       <c r="C102">
-        <v>0.1320559008841963</v>
+        <v>0.1348369240042884</v>
       </c>
       <c r="D102">
-        <v>-0.07696386679223143</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.08452629955335519</v>
+      </c>
+      <c r="E102">
+        <v>0.02246828619908352</v>
+      </c>
+      <c r="F102">
+        <v>0.03212227509399599</v>
+      </c>
+      <c r="G102">
+        <v>0.009342183857683003</v>
+      </c>
+      <c r="H102">
+        <v>-0.009193843826087353</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
